--- a/public/export/Phòng mt.xlsx
+++ b/public/export/Phòng mt.xlsx
@@ -48,25 +48,25 @@
     <t>Sáng</t>
   </si>
   <si>
-    <t>Nguyễn Thanh Tùng-5B</t>
-  </si>
-  <si>
-    <t>Lê Xuân Phong-5C</t>
-  </si>
-  <si>
-    <t>Võ Thị Hồng Phương-5A</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Quốc Danh-4A</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Diễm-4B</t>
+    <t>Kỹ thuật-Nguyễn Thanh Tùng-5B</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Lê Xuân Phong-5C</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Võ Thị Hồng Phương-5A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Đỗ Thị Quốc Danh-4A</t>
+  </si>
+  <si>
+    <t>Kỹ thuật-Huỳnh Thị Diễm-4B</t>
   </si>
   <si>
     <t>Chiều</t>
   </si>
   <si>
-    <t>Trần Công Đức-4C</t>
+    <t>Kỹ thuật-Trần Công Đức-4C</t>
   </si>
 </sst>
 </file>
@@ -453,11 +453,11 @@
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
